--- a/publisher.xlsx
+++ b/publisher.xlsx
@@ -19,7 +19,7 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Frequency_2015</t>
+    <t>Size_for_2015</t>
   </si>
   <si>
     <t>Hindawi Publishing Corporation</t>

--- a/publisher.xlsx
+++ b/publisher.xlsx
@@ -19,7 +19,7 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Size_for_2015</t>
+    <t>Frequency_2015</t>
   </si>
   <si>
     <t>Hindawi Publishing Corporation</t>
